--- a/Tables/Dictionaries.xlsx
+++ b/Tables/Dictionaries.xlsx
@@ -1,29 +1,223 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18431"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Magister\Documents\GitHub\BespalovPhd\Tables\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dliia\Documents\GitHub\BespalovPhd\Tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12000" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12000" firstSheet="2" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="Demands" sheetId="1" r:id="rId1"/>
     <sheet name="Specific features" sheetId="2" r:id="rId2"/>
     <sheet name="Treatment featrues " sheetId="3" r:id="rId3"/>
-    <sheet name="Other features " sheetId="4" r:id="rId4"/>
+    <sheet name="Screening freatures" sheetId="5" r:id="rId4"/>
+    <sheet name="Other features " sheetId="4" r:id="rId5"/>
+    <sheet name="Inputs" sheetId="6" r:id="rId6"/>
+    <sheet name="Outcomes" sheetId="7" r:id="rId7"/>
   </sheets>
-  <calcPr calcId="162913" concurrentCalc="0"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="62">
+  <si>
+    <t>Screening evaluation</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Screening evaluation includes both program evaluation (i.e.&amp;#58 selective screening targets, intervals, and related protocols) and evaluation of screening tests in the context of assumptions regarding natural history, incidence, prevalence and test dissemination. </t>
+  </si>
+  <si>
+    <t>Epidemiological analysis</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Models with this primary purpose are focused on causes and effects of disease in individuals and populations and in forming public heath decisions via simulation that synthesizes and extends empirical data.  </t>
+  </si>
+  <si>
+    <t>Policy evaluation</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Models with this primary purpose are concerned with the evaluation of actual or proposed public health policies and their impact on a population&amp;#39s health.  </t>
+  </si>
+  <si>
+    <t>Population trends</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Models with this primary purpose typically synthesize and explain surveillance data and focus on macro-scale trends seen in populations.  </t>
+  </si>
+  <si>
+    <t>Code</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>CISNET Description</t>
+  </si>
+  <si>
+    <t>Longitudinal</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Longitudinal models represent sequences of individual clinical observations or events, typically with time as independent variable, often with event probabilities conditional on previous event outcomes. </t>
+  </si>
+  <si>
+    <t>Likelihood optimization</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Models using this approach estimate parameters by maximizing a defined likelihood function. That is, maximizes the agreement of the model&amp;#39s outputs with observed data.  </t>
+  </si>
+  <si>
+    <t>Stochastic process</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Models involving stochastic processes that employ probability distributions that change over time. </t>
+  </si>
+  <si>
+    <t>Time to Event</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Time to event models utilize time-based event probability distributions to determine the time (typically indexed by age) of various events. These distributions may be conditional. A variant of Monte-Carlo methodology is typically employed in these models.  </t>
+  </si>
+  <si>
+    <t>False Positives</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Allows for an outcome in which the screening event indicates a positive disease state in the absence of the disease. </t>
+  </si>
+  <si>
+    <t>True Positives</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Allows for an outcome in which the screening event indicates a positive disease state in the presence of the disease. </t>
+  </si>
+  <si>
+    <t>False Negatives</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Note that negative disease state may be expressed in terms of a defined follow-up time (observed) and/or be based on simulation data typically unobserved in real world studies. See specific model notes for details. </t>
+  </si>
+  <si>
+    <t>True Negatives</t>
+  </si>
+  <si>
+    <t>Prevention</t>
+  </si>
+  <si>
+    <t>Screening</t>
+  </si>
+  <si>
+    <t>Treatment</t>
+  </si>
+  <si>
+    <t>Vaccination</t>
+  </si>
+  <si>
+    <t>Overdiagnoses</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Provides measures of the event (which typically cannot be observed) where screening detects cancer that would have otherwise gone undetected with lifetime follow up. That is, would not have surfaced in the person&amp;#39s lifetime. </t>
+  </si>
+  <si>
+    <t>History</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> The screening history of individuals and/or sub-populations </t>
+  </si>
+  <si>
+    <t>Biopsies performed</t>
+  </si>
+  <si>
+    <t>Unnecessary biopsies</t>
+  </si>
+  <si>
+    <t>Stage Distribution</t>
+  </si>
+  <si>
+    <t>State Transition</t>
+  </si>
+  <si>
+    <t>Grade Distribution</t>
+  </si>
+  <si>
+    <t>Other Conditions</t>
+  </si>
+  <si>
+    <t>Infection</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Incidence </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Disease </t>
+  </si>
+  <si>
+    <t>Smoking</t>
+  </si>
+  <si>
+    <t>Survival</t>
+  </si>
+  <si>
+    <t>Life years</t>
+  </si>
+  <si>
+    <t>QALY</t>
+  </si>
+  <si>
+    <t>Cause-specific Mortality</t>
+  </si>
+  <si>
+    <t>All-cause Mortality</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Measurements of time between diagnosis and death. </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Measurements of difference of life years  </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Cause of death is accounted for, at least in terms of target disease vs other causes.  </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Mortality from any cause is provided </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Quality adjusted years of life. </t>
+  </si>
+  <si>
+    <t>Vaccination effect</t>
+  </si>
+  <si>
+    <t>Temporal trends</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> State transition models posit a set of discrete states that the unit of analysis (typically an individual person) can be in at any time. The conditional probabilities of transitioning between states over a given interval of time are established as model parameters. An individual&amp;#39s longitudinal histories can be generated. Variants of Markov models fall into this category. </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Temporal trends of disease</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Effect from vaccination on population, including proportion of cervical disease attributable to vaccination HPV types, vaccination coverage, and duration of vaccine-induced immunity </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Inputs concerned with factors that may influence incidence or treatment of disease. For example, smoking history, obesity, diet.</t>
+  </si>
+  <si>
+    <t>Smoking History</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Outputs pertaining to the patterns of smoking in the simulated population, possibly in the context of simulated interventions. </t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -38,12 +232,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -58,8 +258,18 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -340,52 +550,590 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:C5"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:C1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="2" max="2" width="23.08984375" customWidth="1"/>
+    <col min="3" max="3" width="119.08984375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="29" x14ac:dyDescent="0.35">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="29" x14ac:dyDescent="0.35">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="29" x14ac:dyDescent="0.35">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A5">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="2" max="2" width="24.90625" customWidth="1"/>
+    <col min="3" max="3" width="95.81640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A1" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="29" x14ac:dyDescent="0.35">
+      <c r="A2" s="1">
+        <v>0</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="29" x14ac:dyDescent="0.35">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A4" s="1">
+        <v>2</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A5" s="1">
+        <v>3</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="58" x14ac:dyDescent="0.35">
+      <c r="A6" s="1">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
+        <v>37</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A7" s="1">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A8" s="1">
+        <v>6</v>
+      </c>
+      <c r="B8" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A9" s="1">
+        <v>7</v>
+      </c>
+      <c r="B9" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="29" x14ac:dyDescent="0.35">
+      <c r="A10" s="1">
+        <v>8</v>
+      </c>
+      <c r="B10" t="s">
+        <v>43</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="29" x14ac:dyDescent="0.35">
+      <c r="A11" s="1">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s">
+        <v>60</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A12" s="1">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
+        <v>39</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H35" sqref="H35"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="2" max="2" width="14.7265625" customWidth="1"/>
+    <col min="3" max="3" width="110.1796875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A1" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A5">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>29</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:C13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="2" max="2" width="19.1796875" customWidth="1"/>
+    <col min="3" max="3" width="106.08984375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A1" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="29" x14ac:dyDescent="0.35">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="29" x14ac:dyDescent="0.35">
+      <c r="A5">
+        <v>3</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="29" x14ac:dyDescent="0.35">
+      <c r="A6">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
+        <v>30</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A7">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
+        <v>32</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A8">
+        <v>6</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C8" s="1"/>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A9">
+        <v>7</v>
+      </c>
+      <c r="B9" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B13" s="4"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="2" max="2" width="20.54296875" customWidth="1"/>
+    <col min="3" max="3" width="100.36328125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A1" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="2" max="2" width="21.36328125" customWidth="1"/>
+    <col min="3" max="3" width="88.54296875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A1" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A5">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>36</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I23" sqref="I23"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="2" max="2" width="20" customWidth="1"/>
+    <col min="3" max="3" width="114.81640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A1" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>45</v>
+      </c>
+      <c r="C3" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>46</v>
+      </c>
+      <c r="C4" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A5">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>47</v>
+      </c>
+      <c r="C5" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A6">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
+        <v>48</v>
+      </c>
+      <c r="C6" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A7">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
+        <v>55</v>
+      </c>
+      <c r="C7" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="29" x14ac:dyDescent="0.35">
+      <c r="A8">
+        <v>6</v>
+      </c>
+      <c r="B8" t="s">
+        <v>54</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>